--- a/biology/Zoologie/Balaenidae/Balaenidae.xlsx
+++ b/biology/Zoologie/Balaenidae/Balaenidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des balénidés regroupe tous les cétacés à fanons qui sont communément appelés baleines franches.
-L'appellation franche provient des chasseurs baleiniers, qui recherchaient plus particulièrement cette famille pour sa forte teneur en graisses. Cela en augmentait la rentabilité économique par rapport aux rorquals, et, de plus, les prises flottaient plus longtemps sur l'eau, ce qui rendait l'exploitation plus simple[1].
+L'appellation franche provient des chasseurs baleiniers, qui recherchaient plus particulièrement cette famille pour sa forte teneur en graisses. Cela en augmentait la rentabilité économique par rapport aux rorquals, et, de plus, les prises flottaient plus longtemps sur l'eau, ce qui rendait l'exploitation plus simple.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les balénidés se distinguent des balénoptéridés principalement par l'absence de sillons jugulaires et d'aileron dorsal. Leur nage est plus lente.
 Toutes les espèces de la famille ont un corps noir massif et une queue large avec une échancrure médiane. Les nageoires pectorales ont une forme de pelle.
@@ -544,7 +558,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">genre Balaena Linnaeus, 1758
 Balaena mysticetus Linnaeus, 1758 — baleine boréale ou baleine du Groenland
